--- a/Erros Estatisticos/Erros Estatisticos.xlsx
+++ b/Erros Estatisticos/Erros Estatisticos.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexsandro.ignacio\OneDrive - WCA Soluções de Inteligência Comercial\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python_developer\Erros Estatisticos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F4B358-8E96-4EA0-A4F5-032A6791D2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0954FBF-D9C0-4D8D-A87B-37D4973FF321}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas de Erro" sheetId="1" r:id="rId1"/>
     <sheet name="Modelos de Projeção" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -139,7 +138,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +190,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,9 +293,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,27 +622,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA983DD-556E-48D7-9CE5-11484C614066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -656,9 +661,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
@@ -675,11 +680,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>3</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>3.34</v>
       </c>
       <c r="C3" s="8">
@@ -703,11 +708,11 @@
         <v>11.333333333333329</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>4</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>4.18</v>
       </c>
       <c r="C4" s="8">
@@ -731,11 +736,11 @@
         <v>4.4999999999999929</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="8">
@@ -759,11 +764,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>2.99</v>
       </c>
       <c r="C6" s="8">
@@ -787,11 +792,11 @@
         <v>0.33333333333332626</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
         <v>4.5</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>4.51</v>
       </c>
       <c r="C7" s="8">
@@ -815,11 +820,11 @@
         <v>0.22222222222221749</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>5.18</v>
       </c>
       <c r="C8" s="8">
@@ -843,11 +848,11 @@
         <v>29.499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>4.5</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>8.18</v>
       </c>
       <c r="C9" s="8">
@@ -871,12 +876,12 @@
         <v>81.777777777777771</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
         <f>SUM(A3:A9)</f>
         <v>26</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>SUM(B3:B9)</f>
         <v>31.38</v>
       </c>
@@ -901,9 +906,9 @@
         <v>127.66666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="12">
         <f>C10/COUNTA(C3:C9)</f>
         <v>-0.76857142857142846</v>
@@ -936,76 +941,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9345EFC-EB73-4F95-A1F6-8804F40E21C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.5703125" style="21" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="67.5546875" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Erros Estatisticos/Erros Estatisticos.xlsx
+++ b/Erros Estatisticos/Erros Estatisticos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python_developer\Erros Estatisticos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcamentoring-my.sharepoint.com/personal/alexsandro_ignacio_wca-ec_com_br/Documents/Documentos/Docs/Git/python_developer/Erros Estatisticos/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_5BBF31039746FE1E7C84E2DC29D4AB43810D29A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7091032B-3E27-4DAF-81A0-778FBCC42006}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas de Erro" sheetId="1" r:id="rId1"/>
     <sheet name="Modelos de Projeção" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Previsto</t>
   </si>
@@ -106,16 +109,19 @@
   </si>
   <si>
     <t>11. Holt Winter’s Exponential Smoothing (HWES)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ELN-V6Gnjs4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,14 @@
       <color rgb="FF555555"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -246,10 +260,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,8 +324,10 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,23 +639,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -661,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
@@ -680,7 +697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>3</v>
       </c>
@@ -688,11 +705,11 @@
         <v>3.34</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C9" si="0">A3-B3</f>
+        <f>(A3-B3)</f>
         <v>-0.33999999999999986</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D9" si="1">ABS(A3-B3)</f>
+        <f t="shared" ref="D3:D9" si="0">ABS(A3-B3)</f>
         <v>0.33999999999999986</v>
       </c>
       <c r="E3" s="10">
@@ -708,7 +725,7 @@
         <v>11.333333333333329</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>4</v>
       </c>
@@ -716,11 +733,11 @@
         <v>4.18</v>
       </c>
       <c r="C4" s="8">
+        <f t="shared" ref="C4:C9" si="1">(A4-B4)</f>
+        <v>-0.17999999999999972</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>-0.17999999999999972</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" si="1"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="E4" s="10">
@@ -736,7 +753,7 @@
         <v>4.4999999999999929</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -744,11 +761,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="10">
@@ -764,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -772,11 +789,11 @@
         <v>2.99</v>
       </c>
       <c r="C6" s="8">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="E6" s="10">
@@ -784,7 +801,7 @@
         <v>9.9999999999995736E-5</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="3"/>
+        <f>C6/A6*100</f>
         <v>0.33333333333332626</v>
       </c>
       <c r="G6" s="11">
@@ -792,7 +809,7 @@
         <v>0.33333333333332626</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4.5</v>
       </c>
@@ -800,11 +817,11 @@
         <v>4.51</v>
       </c>
       <c r="C7" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>-9.9999999999997868E-3</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" si="1"/>
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="E7" s="10">
@@ -820,7 +837,7 @@
         <v>0.22222222222221749</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>4</v>
       </c>
@@ -828,11 +845,11 @@
         <v>5.18</v>
       </c>
       <c r="C8" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.1799999999999997</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1799999999999997</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="1"/>
         <v>1.1799999999999997</v>
       </c>
       <c r="E8" s="10">
@@ -848,7 +865,7 @@
         <v>29.499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4.5</v>
       </c>
@@ -856,11 +873,11 @@
         <v>8.18</v>
       </c>
       <c r="C9" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="1"/>
         <v>3.6799999999999997</v>
       </c>
       <c r="E9" s="10">
@@ -876,7 +893,7 @@
         <v>81.777777777777771</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <f>SUM(A3:A9)</f>
         <v>26</v>
@@ -906,7 +923,7 @@
         <v>127.66666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="12">
@@ -930,86 +947,94 @@
         <v>18.238095238095234</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{519268BF-0953-4577-88F3-87E9AC803332}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.5546875" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="1" width="67.5703125" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
